--- a/ch_04/ch_04_consolidated.xlsx
+++ b/ch_04/ch_04_consolidated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26519"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26619"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\modern-analytics-excel-book\ch_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08774938-AC28-4C7D-9A35-EEB5AE7B5479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887BA483-6868-4D0E-8CED-13FA8FD3ABF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="1" xr2:uid="{2D8EFF60-B346-46B5-8141-DF1395A9823C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{2D8EFF60-B346-46B5-8141-DF1395A9823C}"/>
   </bookViews>
   <sheets>
     <sheet name="rentals" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -8119,7 +8119,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9003E62D-C6C2-4974-BD6B-656F05E45EDA}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9003E62D-C6C2-4974-BD6B-656F05E45EDA}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:C18" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -8478,7 +8478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B51DD0-63FF-4F2F-9759-F92C75F35C2F}">
   <dimension ref="A1:I251"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -15779,7 +15779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB0BD03-BE81-4205-808B-2771979FB6EE}">
   <dimension ref="A1:F691"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
